--- a/Homework6/Quiz/custom.xlsx
+++ b/Homework6/Quiz/custom.xlsx
@@ -1469,42 +1469,42 @@
     </row>
     <row r="280">
       <c r="A280" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="288">
